--- a/Gold_Mine_Results.xlsx
+++ b/Gold_Mine_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlekBabich\Projects\gold_mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056551C0-C7E3-4955-94B7-1B35FEDD6C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4832D23-7ECB-4414-B9C0-082CE0AC25A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Place</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Dan Shepard</t>
+  </si>
+  <si>
+    <t>LATE</t>
   </si>
 </sst>
 </file>
@@ -160,7 +166,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -173,8 +179,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -243,127 +255,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -450,6 +348,91 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -459,66 +442,67 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -818,7 +802,7 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,236 +816,277 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="4">
         <f>AVERAGE(F4:M4)</f>
         <v>603.98500000000001</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="2">
         <v>595.42100000000005</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>653.75599999999997</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="2">
         <v>617.89400000000001</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="2">
         <v>600.82100000000003</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="2">
         <v>606.52800000000002</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="2">
         <v>621.35799999999995</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="2">
         <v>597.50900000000001</v>
       </c>
-      <c r="M4" s="25">
+      <c r="M4" s="19">
         <v>538.59299999999996</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="5">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="4">
         <f>AVERAGE(F5:M5)</f>
         <v>621.25562500000001</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="2">
         <v>605.39300000000003</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="2">
         <v>654.73</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="2">
         <v>637.39499999999998</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="2">
         <v>580.18100000000004</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="2">
         <v>603.09</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="2">
         <v>643.65599999999995</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="2">
         <v>645.43700000000001</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5" s="19">
         <v>600.16300000000001</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="5">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="4">
         <f>AVERAGE(F6:M6)</f>
         <v>622.39565000000005</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="20">
         <v>642.06119999999999</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="2">
         <v>681.11199999999997</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="2">
         <v>640.35</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="2">
         <v>585.423</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="2">
         <v>603.21900000000005</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="2">
         <v>603.20500000000004</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="2">
         <v>623.56600000000003</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6" s="19">
         <v>600.22900000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="7" t="s">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="2">
         <v>620.73</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>645.75800000000004</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>630.34500000000003</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="2">
         <v>577.49199999999996</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>645.28499999999997</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>588.16300000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>633.26800000000003</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="19">
         <v>624.79700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="21">
+        <f>AVERAGE(F8:M8)</f>
+        <v>488.76</v>
+      </c>
+      <c r="F8" s="3">
+        <v>479.32900000000001</v>
+      </c>
+      <c r="G8" s="18">
+        <v>479.35500000000002</v>
+      </c>
+      <c r="H8" s="18">
+        <v>519.40300000000002</v>
+      </c>
+      <c r="I8" s="18">
+        <v>480.637</v>
+      </c>
+      <c r="J8" s="18">
+        <v>523.56399999999996</v>
+      </c>
+      <c r="K8" s="18">
+        <v>482.154</v>
+      </c>
+      <c r="L8" s="18">
+        <v>483.82799999999997</v>
+      </c>
+      <c r="M8" s="22">
+        <v>461.81</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="11"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="11"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21"/>
+      <c r="C14" s="11"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22"/>
+      <c r="C15" s="12"/>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="16"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="15" t="str">
+      <c r="C17" s="5" t="str">
         <f>IFERROR(AVERAGE(C11:C15),"")</f>
         <v/>
       </c>

--- a/Gold_Mine_Results.xlsx
+++ b/Gold_Mine_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlekBabich\Projects\gold_mine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4832D23-7ECB-4414-B9C0-082CE0AC25A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80425242-8A40-435A-BD0F-D2BC910A89F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Place</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>LATE</t>
+  </si>
+  <si>
+    <t>2nd Attempt</t>
   </si>
 </sst>
 </file>
@@ -442,7 +445,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +508,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,12 +809,12 @@
   <dimension ref="B2:M17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
@@ -1048,6 +1055,45 @@
         <v>461.81</v>
       </c>
     </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="24">
+        <f>AVERAGE(F9:M9)</f>
+        <v>583.20775000000003</v>
+      </c>
+      <c r="F9" s="18">
+        <v>595.55799999999999</v>
+      </c>
+      <c r="G9" s="18">
+        <v>600.44200000000001</v>
+      </c>
+      <c r="H9" s="18">
+        <v>582.08699999999999</v>
+      </c>
+      <c r="I9" s="18">
+        <v>563.399</v>
+      </c>
+      <c r="J9" s="18">
+        <v>552.47299999999996</v>
+      </c>
+      <c r="K9" s="18">
+        <v>596.39300000000003</v>
+      </c>
+      <c r="L9" s="18">
+        <v>593.13</v>
+      </c>
+      <c r="M9" s="22">
+        <v>582.17999999999995</v>
+      </c>
+    </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
